--- a/atari_sample_efficiency/visualization/sample_eff_benchmark.xlsx
+++ b/atari_sample_efficiency/visualization/sample_eff_benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\sample_efficiency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\atari_sample_efficiency\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D2CD5C-4B51-4255-8880-67DB702DA13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C206D-535E-477E-AC42-F7DAC9DFC80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve">Ray: </t>
   </si>
@@ -44,22 +44,19 @@
     <t xml:space="preserve">LF:  </t>
   </si>
   <si>
-    <t>Cartpole</t>
-  </si>
-  <si>
-    <t>BlackJack</t>
-  </si>
-  <si>
-    <t>Pendulum</t>
-  </si>
-  <si>
-    <t>AWS (10000 rounds, 64 cores, 16 envs)</t>
-  </si>
-  <si>
-    <t>AWS (10000 rounds, 32 cores, 16 envs, 15 games/round)</t>
-  </si>
-  <si>
     <t>Games/s</t>
+  </si>
+  <si>
+    <t>Pacman</t>
+  </si>
+  <si>
+    <t>Pong</t>
+  </si>
+  <si>
+    <t>SpaceInvader</t>
+  </si>
+  <si>
+    <t>AWS (1000 rounds, 32 cores, 15 games/round)</t>
   </si>
 </sst>
 </file>
@@ -377,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,16 +390,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,13 +407,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.21</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>28.06</v>
+        <v>197.71</v>
       </c>
       <c r="D2">
-        <v>44.85</v>
+        <v>200.54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -424,27 +421,27 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>39.880000000000003</v>
+        <v>16.96</v>
       </c>
       <c r="C3">
-        <v>20.7</v>
+        <v>17.09</v>
       </c>
       <c r="D3">
-        <v>40.82</v>
+        <v>17.440000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,13 +449,16 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>45.78</v>
+        <f>15000/B2</f>
+        <v>75</v>
       </c>
       <c r="C6">
-        <v>27.22</v>
+        <f t="shared" ref="C6:D6" si="0">15000/C2</f>
+        <v>75.868696575792825</v>
       </c>
       <c r="D6">
-        <v>46.53</v>
+        <f t="shared" si="0"/>
+        <v>74.798045277750077</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,61 +466,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>39.33</v>
+        <f>15000/B3</f>
+        <v>884.43396226415086</v>
       </c>
       <c r="C7">
-        <v>20.09</v>
+        <f t="shared" ref="C7:D7" si="1">15000/C3</f>
+        <v>877.70626097132822</v>
       </c>
       <c r="D7">
-        <v>41.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f>150000/45.78</f>
-        <v>3276.5399737876801</v>
-      </c>
-      <c r="C10">
-        <f>150000/27.22</f>
-        <v>5510.6539309331374</v>
-      </c>
-      <c r="D10">
-        <f>150000/46.53</f>
-        <v>3223.7266279819469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <f>150000/39.33</f>
-        <v>3813.8825324180016</v>
-      </c>
-      <c r="C11">
-        <f>150000/20.09</f>
-        <v>7466.4011946241908</v>
-      </c>
-      <c r="D11">
-        <f>150000/41.14</f>
-        <v>3646.0865337870687</v>
+        <f t="shared" si="1"/>
+        <v>860.09174311926597</v>
       </c>
     </row>
   </sheetData>

--- a/atari_sample_efficiency/visualization/sample_eff_benchmark.xlsx
+++ b/atari_sample_efficiency/visualization/sample_eff_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\atari_sample_efficiency\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C206D-535E-477E-AC42-F7DAC9DFC80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97369963-C141-470B-B90F-E23B07397EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1800" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -402,7 +402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -416,7 +416,7 @@
         <v>200.54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -430,7 +430,7 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>74.798045277750077</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -476,6 +476,24 @@
       <c r="D7">
         <f t="shared" si="1"/>
         <v>860.09174311926597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B7/B6</f>
+        <v>11.792452830188678</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="2">C7/C6</f>
+        <v>11.56875365710942</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>11.498853211009173</v>
+      </c>
+      <c r="E8">
+        <f>(B8+C8+D8)/3</f>
+        <v>11.620019899435755</v>
       </c>
     </row>
   </sheetData>
